--- a/data/courses.xlsx
+++ b/data/courses.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,21 +54,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,12 +437,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" width="20"/>
+    <col customWidth="1" max="2" min="2" width="20"/>
+    <col customWidth="1" max="3" min="3" width="20"/>
+    <col customWidth="1" max="4" min="4" width="20"/>
+    <col customWidth="1" max="5" min="5" width="20"/>
+    <col customWidth="1" max="7" min="7" width="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -615,7 +615,34 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>05/11/2020 à 15:14</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>14H00</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>17H00</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>CP (J. Rakotobe)</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/data/courses.xlsx
+++ b/data/courses.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -666,6 +666,33 @@
       <c r="E8" s="2" t="inlineStr">
         <is>
           <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>12/11/2020 à 09:05</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>08H00</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>12H00</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>BDA (F. Bossut)</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>

--- a/data/courses.xlsx
+++ b/data/courses.xlsx
@@ -672,7 +672,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>12/11/2020 à 09:05</t>
+          <t>12/11/2020 à 09:07</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">

--- a/data/courses.xlsx
+++ b/data/courses.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -693,6 +693,33 @@
       <c r="E9" s="2" t="inlineStr">
         <is>
           <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>12/11/2020 à 14:11</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>14H00</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>17H00</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>CP (J. Rakotobe)</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>

--- a/data/courses.xlsx
+++ b/data/courses.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -720,6 +720,33 @@
       <c r="E10" s="2" t="inlineStr">
         <is>
           <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>13/11/2020 à 08:07</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>08H00</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>12H00</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>C3P (V. Aranega)</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>

--- a/data/courses.xlsx
+++ b/data/courses.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,21 +54,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,12 +437,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" width="20"/>
+    <col customWidth="1" max="2" min="2" width="20"/>
+    <col customWidth="1" max="3" min="3" width="20"/>
+    <col customWidth="1" max="4" min="4" width="20"/>
+    <col customWidth="1" max="5" min="5" width="20"/>
+    <col customWidth="1" max="7" min="7" width="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -750,7 +750,88 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>18/11/2020 à 10:32</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>10H20</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>12H20</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>ANG1 (E. Dewulf)</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>18/11/2020 à 14:02</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>14H00</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>16H00</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>RO (N. Melab)</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>18/11/2020 à 17:17</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>16H00</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>18H00</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>ICM (J. Rouillard)</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/data/courses.xlsx
+++ b/data/courses.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,21 +54,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,12 +437,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="20"/>
-    <col customWidth="1" max="2" min="2" width="20"/>
-    <col customWidth="1" max="3" min="3" width="20"/>
-    <col customWidth="1" max="4" min="4" width="20"/>
-    <col customWidth="1" max="5" min="5" width="20"/>
-    <col customWidth="1" max="7" min="7" width="20"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -831,7 +831,34 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>19/11/2020 à 08:18</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>08H00</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>12H00</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>BDA (F. Bossut)</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/courses.xlsx
+++ b/data/courses.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -753,49 +753,49 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>18/11/2020 à 10:32</t>
+          <t>13/11/2020 à 14:25</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>10H20</t>
+          <t>13H30</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>12H20</t>
+          <t>16H30</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>ANG1 (E. Dewulf)</t>
+          <t>GP (J-Y. Chauvier)</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>18/11/2020 à 14:02</t>
+          <t>18/11/2020 à 10:32</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>14H00</t>
+          <t>10H20</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16H00</t>
+          <t>12H20</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>RO (N. Melab)</t>
+          <t>ANG1 (E. Dewulf)</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -807,22 +807,22 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>18/11/2020 à 17:17</t>
+          <t>18/11/2020 à 14:02</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
+          <t>14H00</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
           <t>16H00</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>18H00</t>
-        </is>
-      </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>ICM (J. Rouillard)</t>
+          <t>RO (N. Melab)</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -834,25 +834,79 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
+          <t>18/11/2020 à 17:17</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>16H00</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>18H00</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>ICM (J. Rouillard)</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
           <t>19/11/2020 à 08:18</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>08H00</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>12H00</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D16" s="2" t="inlineStr">
         <is>
           <t>BDA (F. Bossut)</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>20/11/2020 à 08:19</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>08H00</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>12H00</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>C3P (V. Aranega)</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>4</t>
         </is>

--- a/data/courses.xlsx
+++ b/data/courses.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -909,6 +909,33 @@
       <c r="E17" s="2" t="inlineStr">
         <is>
           <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>25/11/2020 à 14:12</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>14H00</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>16H00</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>RO (N. Melab)</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>

--- a/data/courses.xlsx
+++ b/data/courses.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -934,6 +934,33 @@
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>25/11/2020 à 16:03</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>16H00</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>18H00</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>ICM (J. Rouillard)</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/data/courses.xlsx
+++ b/data/courses.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -963,6 +963,33 @@
       <c r="E19" s="2" t="inlineStr">
         <is>
           <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>26/11/2020 à 08:15</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>08H00</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>12H00</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>BDA (F. Bossut)</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>

--- a/data/courses.xlsx
+++ b/data/courses.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
@@ -990,6 +990,33 @@
       <c r="E20" s="2" t="inlineStr">
         <is>
           <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>26/11/2020 à 14:13</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>14H00</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>17H00</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>ED (L. Jourdan)</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>

--- a/data/courses.xlsx
+++ b/data/courses.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
@@ -1017,6 +1017,33 @@
       <c r="E21" s="2" t="inlineStr">
         <is>
           <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>27/11/2020 à 08:00</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>08H00</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>12H00</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>C3P (V. Aranega)</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
